--- a/rageCommanderDeck.xlsx
+++ b/rageCommanderDeck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\o\git-repos\mtg-card-price-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D04D0ED-6744-4D54-913E-FBC1F9E6A3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48E412-1D81-4BE9-8469-51D72372123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -71,18 +71,12 @@
     <t>Stormfist Crusader</t>
   </si>
   <si>
-    <t>Thermo-Alchemist</t>
-  </si>
-  <si>
     <t>Burnished Hart</t>
   </si>
   <si>
     <t>Guttersnipe</t>
   </si>
   <si>
-    <t>Vampire Nighthawk</t>
-  </si>
-  <si>
     <t>Sangromancer</t>
   </si>
   <si>
@@ -92,15 +86,9 @@
     <t>Tectonic Giant</t>
   </si>
   <si>
-    <t>Wildfire Devils</t>
-  </si>
-  <si>
     <t>Archfiend of Depravity</t>
   </si>
   <si>
-    <t>Bloodgift Demon</t>
-  </si>
-  <si>
     <t>Brash Taunter</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Sepulchral Primordial</t>
   </si>
   <si>
-    <t>Magmatic Force</t>
-  </si>
-  <si>
     <t>Ob Nixilis Reignited</t>
   </si>
   <si>
@@ -185,18 +170,12 @@
     <t>Wild Ricochet</t>
   </si>
   <si>
-    <t>Breath of Malfegor</t>
-  </si>
-  <si>
     <t>Mana Geyser</t>
   </si>
   <si>
     <t>Deadly Tempest</t>
   </si>
   <si>
-    <t>Explosion of Riches</t>
-  </si>
-  <si>
     <t>Reign of the Pit</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>Worn Powerstone</t>
   </si>
   <si>
-    <t>Coveted Jewel</t>
-  </si>
-  <si>
     <t>Theater of Horrors</t>
   </si>
   <si>
@@ -248,9 +224,6 @@
     <t>Bloodfell Caves</t>
   </si>
   <si>
-    <t>Cinder Barrens</t>
-  </si>
-  <si>
     <t>Foreboding Ruins</t>
   </si>
   <si>
@@ -260,13 +233,97 @@
     <t>Smoldering Marsh</t>
   </si>
   <si>
-    <t>Stensia Bloodhall</t>
-  </si>
-  <si>
     <t>Temple of Malice</t>
   </si>
   <si>
-    <t>Urborg Volcano</t>
+    <t>Blood Crypt</t>
+  </si>
+  <si>
+    <t>Return to Ravnica</t>
+  </si>
+  <si>
+    <t>Dragonskull Summit</t>
+  </si>
+  <si>
+    <t>Magic 2013</t>
+  </si>
+  <si>
+    <t>Ancient Brass Dragon</t>
+  </si>
+  <si>
+    <t>Commander Legends: Battle For Baldur's Gate</t>
+  </si>
+  <si>
+    <t>Sheoldred, the Apocalypse</t>
+  </si>
+  <si>
+    <t>Dominaria United: Promos</t>
+  </si>
+  <si>
+    <t>V.2</t>
+  </si>
+  <si>
+    <t>The Cruelty of Gix</t>
+  </si>
+  <si>
+    <t>Dominaria United</t>
+  </si>
+  <si>
+    <t>Tree of Perdition</t>
+  </si>
+  <si>
+    <t>Eldritch Moon</t>
+  </si>
+  <si>
+    <t>Deadly Dispute</t>
+  </si>
+  <si>
+    <t>Foil</t>
+  </si>
+  <si>
+    <t>Chandra, Hope's Beacon</t>
+  </si>
+  <si>
+    <t>March of the Machine: Promos</t>
+  </si>
+  <si>
+    <t>Goldspan Dragon</t>
+  </si>
+  <si>
+    <t>Kaldheim: Promos</t>
+  </si>
+  <si>
+    <t>Kolaghan's Command</t>
+  </si>
+  <si>
+    <t>Double Masters 2022</t>
+  </si>
+  <si>
+    <t>Mogis, God of Slaughter</t>
+  </si>
+  <si>
+    <t>Born of the Gods</t>
+  </si>
+  <si>
+    <t>Mind Stone</t>
+  </si>
+  <si>
+    <t>Promos</t>
+  </si>
+  <si>
+    <t>Riveteers Overlook</t>
+  </si>
+  <si>
+    <t>Streets of New Capenna</t>
+  </si>
+  <si>
+    <t>Maestros Theater</t>
+  </si>
+  <si>
+    <t>Drossforge Bridge</t>
+  </si>
+  <si>
+    <t>Modern Horizons 2</t>
   </si>
 </sst>
 </file>
@@ -328,6 +385,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,16 +676,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5703125" style="1"/>
   </cols>
@@ -645,7 +706,7 @@
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -659,7 +720,7 @@
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -673,7 +734,7 @@
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -687,21 +748,21 @@
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.56999999999999995</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -710,12 +771,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>2.3199999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -724,12 +785,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>2.23</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -738,26 +799,26 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>0.11</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>0.83</v>
+        <v>17.309999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -766,12 +827,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>0.84</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -780,12 +841,12 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>0.15</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -799,21 +860,21 @@
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2">
-        <v>0.9</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -822,12 +883,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>0.17</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -855,7 +916,7 @@
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -869,21 +930,21 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2">
-        <v>0.35</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -897,7 +958,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
@@ -911,21 +972,21 @@
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>0.14000000000000001</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
@@ -934,26 +995,26 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
@@ -962,12 +1023,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>0.82</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>9</v>
@@ -976,12 +1037,12 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>9</v>
@@ -990,12 +1051,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>9</v>
@@ -1004,26 +1065,26 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2">
-        <v>0.17</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
@@ -1032,12 +1093,12 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>
@@ -1046,26 +1107,26 @@
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>9</v>
@@ -1074,26 +1135,26 @@
         <v>4</v>
       </c>
       <c r="D32" s="2">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
@@ -1102,26 +1163,26 @@
         <v>4</v>
       </c>
       <c r="D34" s="2">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="2">
-        <v>0.97</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>9</v>
@@ -1130,26 +1191,26 @@
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.17</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>9</v>
@@ -1158,40 +1219,40 @@
         <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>0.19</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>9</v>
@@ -1200,12 +1261,12 @@
         <v>4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>9</v>
@@ -1214,12 +1275,12 @@
         <v>4</v>
       </c>
       <c r="D42" s="2">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
@@ -1228,12 +1289,12 @@
         <v>4</v>
       </c>
       <c r="D43" s="2">
-        <v>0.26</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>9</v>
@@ -1242,12 +1303,12 @@
         <v>4</v>
       </c>
       <c r="D44" s="2">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
@@ -1256,12 +1317,12 @@
         <v>4</v>
       </c>
       <c r="D45" s="2">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>9</v>
@@ -1270,12 +1331,12 @@
         <v>4</v>
       </c>
       <c r="D46" s="2">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>9</v>
@@ -1284,12 +1345,12 @@
         <v>4</v>
       </c>
       <c r="D47" s="2">
-        <v>0.19</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -1298,12 +1359,12 @@
         <v>4</v>
       </c>
       <c r="D48" s="2">
-        <v>0.97</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>9</v>
@@ -1312,12 +1373,12 @@
         <v>4</v>
       </c>
       <c r="D49" s="2">
-        <v>0.62</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>9</v>
@@ -1326,26 +1387,26 @@
         <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2">
-        <v>0.92</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -1354,12 +1415,12 @@
         <v>4</v>
       </c>
       <c r="D52" s="2">
-        <v>0.72</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>9</v>
@@ -1368,12 +1429,12 @@
         <v>4</v>
       </c>
       <c r="D53" s="2">
-        <v>1.03</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>9</v>
@@ -1382,26 +1443,26 @@
         <v>4</v>
       </c>
       <c r="D54" s="2">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D55" s="2">
-        <v>0.19</v>
+        <v>59.15</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>9</v>
@@ -1410,12 +1471,12 @@
         <v>4</v>
       </c>
       <c r="D56" s="2">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>9</v>
@@ -1424,12 +1485,12 @@
         <v>4</v>
       </c>
       <c r="D57" s="2">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>9</v>
@@ -1438,12 +1499,12 @@
         <v>4</v>
       </c>
       <c r="D58" s="2">
-        <v>0.42</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>9</v>
@@ -1452,12 +1513,12 @@
         <v>4</v>
       </c>
       <c r="D59" s="2">
-        <v>1.84</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>9</v>
@@ -1466,12 +1527,12 @@
         <v>4</v>
       </c>
       <c r="D60" s="2">
-        <v>0.18</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>9</v>
@@ -1480,12 +1541,12 @@
         <v>4</v>
       </c>
       <c r="D61" s="2">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>9</v>
@@ -1494,12 +1555,12 @@
         <v>4</v>
       </c>
       <c r="D62" s="2">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>9</v>
@@ -1508,12 +1569,12 @@
         <v>4</v>
       </c>
       <c r="D63" s="2">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>9</v>
@@ -1522,12 +1583,12 @@
         <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>9</v>
@@ -1536,12 +1597,12 @@
         <v>4</v>
       </c>
       <c r="D65" s="2">
-        <v>0.15</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>9</v>
@@ -1550,12 +1611,12 @@
         <v>4</v>
       </c>
       <c r="D66" s="2">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>9</v>
@@ -1564,12 +1625,12 @@
         <v>4</v>
       </c>
       <c r="D67" s="2">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>9</v>
@@ -1578,26 +1639,26 @@
         <v>4</v>
       </c>
       <c r="D68" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="2">
-        <v>0.37</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>9</v>
@@ -1611,7 +1672,7 @@
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>9</v>
@@ -1620,40 +1681,84 @@
         <v>4</v>
       </c>
       <c r="D71" s="2">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="2">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.41</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="2">
-        <f>SUM(D2:D72)</f>
-        <v>38.160000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="2"/>
-    </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <f>SUM(D2:D76)</f>
+        <v>167.15999999999997</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="2"/>
@@ -1691,9 +1796,18 @@
     <row r="89" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="2"/>
     </row>
+    <row r="90" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
-    <sortCondition ref="A2:A72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
+    <sortCondition ref="A2:A76"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
